--- a/results/I3_N5_M2_T45_C200_DepLowerLeft_s3_mean_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepLowerLeft_s3_mean_res.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1430001258850098</v>
+        <v>0.1310000419616699</v>
       </c>
     </row>
     <row r="5">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38.42171004012843</v>
+        <v>33.10555953090582</v>
       </c>
     </row>
     <row r="5">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36.23570364914818</v>
+        <v>36.8839324825959</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38.31694680553866</v>
+        <v>37.2169489987027</v>
       </c>
     </row>
     <row r="8">
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>64.38000000000285</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>152.3990000000031</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="5">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>41.23200000000362</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>115.2100000000028</v>
+        <v>121.2</v>
       </c>
     </row>
     <row r="7">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>163.3300000000036</v>
+        <v>183.6</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>163.3300000000036</v>
+        <v>183.6</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>152.3990000000031</v>
+        <v>122.4</v>
       </c>
     </row>
   </sheetData>
